--- a/data/merged_kel.xlsx
+++ b/data/merged_kel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S152"/>
+  <dimension ref="A1:U152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,16 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>jumlah_taman</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>jumlah_kantor</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>avg_duration</t>
         </is>
       </c>
@@ -583,6 +593,12 @@
         <v>2749</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
         <v>1887.549668874172</v>
       </c>
     </row>
@@ -644,6 +660,12 @@
         <v>2799</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
         <v>1363.099337748344</v>
       </c>
     </row>
@@ -705,6 +727,12 @@
         <v>2890</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
         <v>1441.622516556291</v>
       </c>
     </row>
@@ -766,6 +794,12 @@
         <v>1926</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7</v>
+      </c>
+      <c r="U5" t="n">
         <v>1430.721854304636</v>
       </c>
     </row>
@@ -827,6 +861,12 @@
         <v>630</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
         <v>1241.993377483444</v>
       </c>
     </row>
@@ -888,6 +928,12 @@
         <v>3045</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
         <v>1533.145695364238</v>
       </c>
     </row>
@@ -949,6 +995,12 @@
         <v>1454</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4</v>
+      </c>
+      <c r="U8" t="n">
         <v>1673.76821192053</v>
       </c>
     </row>
@@ -1010,6 +1062,12 @@
         <v>423</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
         <v>1493.165562913907</v>
       </c>
     </row>
@@ -1071,6 +1129,12 @@
         <v>2039</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6</v>
+      </c>
+      <c r="U10" t="n">
         <v>1629.331125827815</v>
       </c>
     </row>
@@ -1132,6 +1196,12 @@
         <v>1333</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" t="n">
         <v>1637.781456953642</v>
       </c>
     </row>
@@ -1193,6 +1263,12 @@
         <v>122</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>15</v>
+      </c>
+      <c r="U12" t="n">
         <v>1817.556291390729</v>
       </c>
     </row>
@@ -1254,6 +1330,12 @@
         <v>2111</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7</v>
+      </c>
+      <c r="U13" t="n">
         <v>1676.966887417218</v>
       </c>
     </row>
@@ -1315,6 +1397,12 @@
         <v>1347</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" t="n">
         <v>1727.927152317881</v>
       </c>
     </row>
@@ -1376,6 +1464,12 @@
         <v>2198</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>9</v>
+      </c>
+      <c r="U15" t="n">
         <v>1773.192052980133</v>
       </c>
     </row>
@@ -1437,6 +1531,12 @@
         <v>1482</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
         <v>1239.390728476821</v>
       </c>
     </row>
@@ -1498,6 +1598,12 @@
         <v>655</v>
       </c>
       <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="n">
         <v>1159.430463576159</v>
       </c>
     </row>
@@ -1559,6 +1665,12 @@
         <v>2530</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
         <v>1286.344370860927</v>
       </c>
     </row>
@@ -1620,6 +1732,12 @@
         <v>1392</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="n">
         <v>1199.026490066225</v>
       </c>
     </row>
@@ -1681,6 +1799,12 @@
         <v>1093</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6</v>
+      </c>
+      <c r="U20" t="n">
         <v>1234.562913907285</v>
       </c>
     </row>
@@ -1742,6 +1866,12 @@
         <v>3269</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>6</v>
+      </c>
+      <c r="U21" t="n">
         <v>1215.741721854305</v>
       </c>
     </row>
@@ -1803,6 +1933,12 @@
         <v>5395</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" t="n">
         <v>1519.874172185431</v>
       </c>
     </row>
@@ -1864,6 +2000,12 @@
         <v>5567</v>
       </c>
       <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" t="n">
         <v>1453.933774834437</v>
       </c>
     </row>
@@ -1925,6 +2067,12 @@
         <v>1538</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
         <v>1711.377483443709</v>
       </c>
     </row>
@@ -1986,6 +2134,12 @@
         <v>3983</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4</v>
+      </c>
+      <c r="U25" t="n">
         <v>1725.258278145695</v>
       </c>
     </row>
@@ -2047,6 +2201,12 @@
         <v>1973</v>
       </c>
       <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" t="n">
         <v>1841.629139072848</v>
       </c>
     </row>
@@ -2108,6 +2268,12 @@
         <v>5283</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" t="n">
         <v>1616.622516556291</v>
       </c>
     </row>
@@ -2169,6 +2335,12 @@
         <v>4394</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>9</v>
+      </c>
+      <c r="U28" t="n">
         <v>1339.953642384106</v>
       </c>
     </row>
@@ -2230,6 +2402,12 @@
         <v>4471</v>
       </c>
       <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" t="n">
         <v>1674.668874172185</v>
       </c>
     </row>
@@ -2291,6 +2469,12 @@
         <v>2467</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3</v>
+      </c>
+      <c r="U30" t="n">
         <v>1539.735099337748</v>
       </c>
     </row>
@@ -2352,6 +2536,12 @@
         <v>723</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3</v>
+      </c>
+      <c r="U31" t="n">
         <v>1577.165562913907</v>
       </c>
     </row>
@@ -2413,6 +2603,12 @@
         <v>1735</v>
       </c>
       <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4</v>
+      </c>
+      <c r="U32" t="n">
         <v>1533.602649006622</v>
       </c>
     </row>
@@ -2474,6 +2670,12 @@
         <v>2551</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4</v>
+      </c>
+      <c r="U33" t="n">
         <v>1516.331125827815</v>
       </c>
     </row>
@@ -2535,6 +2737,12 @@
         <v>2791</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>7</v>
+      </c>
+      <c r="U34" t="n">
         <v>1710.238410596027</v>
       </c>
     </row>
@@ -2596,6 +2804,12 @@
         <v>1442</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
         <v>1819.450331125828</v>
       </c>
     </row>
@@ -2657,6 +2871,12 @@
         <v>901</v>
       </c>
       <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" t="n">
         <v>1829.317880794702</v>
       </c>
     </row>
@@ -2718,6 +2938,12 @@
         <v>3407</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" t="n">
         <v>1642.761589403973</v>
       </c>
     </row>
@@ -2779,6 +3005,10 @@
         <v>3358</v>
       </c>
       <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="n">
         <v>2021.609271523179</v>
       </c>
     </row>
@@ -2840,6 +3070,12 @@
         <v>3307</v>
       </c>
       <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" t="n">
         <v>1483.298013245033</v>
       </c>
     </row>
@@ -2901,6 +3137,12 @@
         <v>1428</v>
       </c>
       <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>14</v>
+      </c>
+      <c r="U40" t="n">
         <v>1135.152317880795</v>
       </c>
     </row>
@@ -2962,6 +3204,12 @@
         <v>829</v>
       </c>
       <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>18</v>
+      </c>
+      <c r="U41" t="n">
         <v>1188.013245033113</v>
       </c>
     </row>
@@ -3023,6 +3271,12 @@
         <v>1681</v>
       </c>
       <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
         <v>1240.668874172185</v>
       </c>
     </row>
@@ -3084,6 +3338,12 @@
         <v>3333</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
         <v>1330.543046357616</v>
       </c>
     </row>
@@ -3145,6 +3405,12 @@
         <v>2909</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3</v>
+      </c>
+      <c r="U44" t="n">
         <v>1211.53642384106</v>
       </c>
     </row>
@@ -3206,6 +3472,12 @@
         <v>3473</v>
       </c>
       <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>13</v>
+      </c>
+      <c r="U45" t="n">
         <v>1350.099337748344</v>
       </c>
     </row>
@@ -3267,6 +3539,12 @@
         <v>1418</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>26</v>
+      </c>
+      <c r="U46" t="n">
         <v>1122.960264900662</v>
       </c>
     </row>
@@ -3328,6 +3606,12 @@
         <v>1734</v>
       </c>
       <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
         <v>1355.291390728477</v>
       </c>
     </row>
@@ -3389,6 +3673,12 @@
         <v>1672</v>
       </c>
       <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="n">
+        <v>10</v>
+      </c>
+      <c r="U48" t="n">
         <v>1353.072847682119</v>
       </c>
     </row>
@@ -3450,6 +3740,12 @@
         <v>2783</v>
       </c>
       <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2</v>
+      </c>
+      <c r="U49" t="n">
         <v>1292.483443708609</v>
       </c>
     </row>
@@ -3511,6 +3807,12 @@
         <v>1683</v>
       </c>
       <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3</v>
+      </c>
+      <c r="U50" t="n">
         <v>1195.377483443709</v>
       </c>
     </row>
@@ -3572,6 +3874,12 @@
         <v>2380</v>
       </c>
       <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2</v>
+      </c>
+      <c r="U51" t="n">
         <v>1323.774834437086</v>
       </c>
     </row>
@@ -3633,6 +3941,12 @@
         <v>3520</v>
       </c>
       <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2</v>
+      </c>
+      <c r="U52" t="n">
         <v>1340.668874172185</v>
       </c>
     </row>
@@ -3694,6 +4008,12 @@
         <v>3928</v>
       </c>
       <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3</v>
+      </c>
+      <c r="U53" t="n">
         <v>1343.814569536424</v>
       </c>
     </row>
@@ -3755,6 +4075,12 @@
         <v>5014</v>
       </c>
       <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3</v>
+      </c>
+      <c r="U54" t="n">
         <v>1417.437086092715</v>
       </c>
     </row>
@@ -3816,6 +4142,12 @@
         <v>3421</v>
       </c>
       <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>4</v>
+      </c>
+      <c r="U55" t="n">
         <v>1366.900662251656</v>
       </c>
     </row>
@@ -3877,6 +4209,12 @@
         <v>1225</v>
       </c>
       <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>4</v>
+      </c>
+      <c r="U56" t="n">
         <v>1453.158940397351</v>
       </c>
     </row>
@@ -3938,6 +4276,12 @@
         <v>1549</v>
       </c>
       <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
         <v>1753.019867549669</v>
       </c>
     </row>
@@ -3999,6 +4343,12 @@
         <v>1509</v>
       </c>
       <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" t="n">
         <v>1785.549668874172</v>
       </c>
     </row>
@@ -4060,6 +4410,12 @@
         <v>4233</v>
       </c>
       <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>6</v>
+      </c>
+      <c r="U59" t="n">
         <v>1323.867549668874</v>
       </c>
     </row>
@@ -4121,6 +4477,12 @@
         <v>1582</v>
       </c>
       <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
         <v>1593.344370860927</v>
       </c>
     </row>
@@ -4182,6 +4544,12 @@
         <v>4114</v>
       </c>
       <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>5</v>
+      </c>
+      <c r="U61" t="n">
         <v>1261.046357615894</v>
       </c>
     </row>
@@ -4243,6 +4611,12 @@
         <v>5709</v>
       </c>
       <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="n">
+        <v>5</v>
+      </c>
+      <c r="U62" t="n">
         <v>1739.423841059603</v>
       </c>
     </row>
@@ -4304,6 +4678,12 @@
         <v>1319</v>
       </c>
       <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>10</v>
+      </c>
+      <c r="U63" t="n">
         <v>1620.662251655629</v>
       </c>
     </row>
@@ -4365,6 +4745,12 @@
         <v>5583</v>
       </c>
       <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>6</v>
+      </c>
+      <c r="U64" t="n">
         <v>1895.205298013245</v>
       </c>
     </row>
@@ -4426,6 +4812,12 @@
         <v>5028</v>
       </c>
       <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="n">
+        <v>18</v>
+      </c>
+      <c r="U65" t="n">
         <v>1676.503311258278</v>
       </c>
     </row>
@@ -4487,6 +4879,12 @@
         <v>9259</v>
       </c>
       <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3</v>
+      </c>
+      <c r="U66" t="n">
         <v>1638.476821192053</v>
       </c>
     </row>
@@ -4548,6 +4946,12 @@
         <v>1915</v>
       </c>
       <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>24</v>
+      </c>
+      <c r="U67" t="n">
         <v>1183.026490066225</v>
       </c>
     </row>
@@ -4609,6 +5013,12 @@
         <v>1516</v>
       </c>
       <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>6</v>
+      </c>
+      <c r="U68" t="n">
         <v>1422.701986754967</v>
       </c>
     </row>
@@ -4670,6 +5080,12 @@
         <v>1535</v>
       </c>
       <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2</v>
+      </c>
+      <c r="U69" t="n">
         <v>1290.549668874172</v>
       </c>
     </row>
@@ -4731,6 +5147,12 @@
         <v>1521</v>
       </c>
       <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2</v>
+      </c>
+      <c r="U70" t="n">
         <v>1282.64238410596</v>
       </c>
     </row>
@@ -4792,6 +5214,12 @@
         <v>2461</v>
       </c>
       <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>5</v>
+      </c>
+      <c r="U71" t="n">
         <v>1313</v>
       </c>
     </row>
@@ -4853,6 +5281,12 @@
         <v>2325</v>
       </c>
       <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3</v>
+      </c>
+      <c r="U72" t="n">
         <v>1331.814569536424</v>
       </c>
     </row>
@@ -4914,6 +5348,12 @@
         <v>2569</v>
       </c>
       <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>6</v>
+      </c>
+      <c r="U73" t="n">
         <v>1454.529801324503</v>
       </c>
     </row>
@@ -4975,6 +5415,12 @@
         <v>1725</v>
       </c>
       <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>6</v>
+      </c>
+      <c r="U74" t="n">
         <v>1202.582781456954</v>
       </c>
     </row>
@@ -5036,6 +5482,12 @@
         <v>2316</v>
       </c>
       <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3</v>
+      </c>
+      <c r="U75" t="n">
         <v>1532.761589403973</v>
       </c>
     </row>
@@ -5097,6 +5549,12 @@
         <v>4003</v>
       </c>
       <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>8</v>
+      </c>
+      <c r="U76" t="n">
         <v>2033.198675496689</v>
       </c>
     </row>
@@ -5158,6 +5616,12 @@
         <v>2361</v>
       </c>
       <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3</v>
+      </c>
+      <c r="U77" t="n">
         <v>2502.960264900662</v>
       </c>
     </row>
@@ -5219,6 +5683,12 @@
         <v>3506</v>
       </c>
       <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4</v>
+      </c>
+      <c r="U78" t="n">
         <v>2303.695364238411</v>
       </c>
     </row>
@@ -5280,6 +5750,12 @@
         <v>2759</v>
       </c>
       <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>3</v>
+      </c>
+      <c r="U79" t="n">
         <v>2623.576158940397</v>
       </c>
     </row>
@@ -5341,6 +5817,12 @@
         <v>2232</v>
       </c>
       <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2</v>
+      </c>
+      <c r="U80" t="n">
         <v>1357.251655629139</v>
       </c>
     </row>
@@ -5402,6 +5884,12 @@
         <v>2000</v>
       </c>
       <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>16</v>
+      </c>
+      <c r="U81" t="n">
         <v>1481.403973509934</v>
       </c>
     </row>
@@ -5463,6 +5951,12 @@
         <v>2387</v>
       </c>
       <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>7</v>
+      </c>
+      <c r="U82" t="n">
         <v>1560.980132450331</v>
       </c>
     </row>
@@ -5524,6 +6018,12 @@
         <v>542</v>
       </c>
       <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>5</v>
+      </c>
+      <c r="U83" t="n">
         <v>1413.76821192053</v>
       </c>
     </row>
@@ -5585,6 +6085,12 @@
         <v>948</v>
       </c>
       <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>15</v>
+      </c>
+      <c r="U84" t="n">
         <v>1264.397350993378</v>
       </c>
     </row>
@@ -5646,6 +6152,12 @@
         <v>3453</v>
       </c>
       <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>4</v>
+      </c>
+      <c r="U85" t="n">
         <v>1912.006622516556</v>
       </c>
     </row>
@@ -5707,6 +6219,12 @@
         <v>4524</v>
       </c>
       <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>5</v>
+      </c>
+      <c r="U86" t="n">
         <v>2084</v>
       </c>
     </row>
@@ -5768,6 +6286,12 @@
         <v>2186</v>
       </c>
       <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="n">
+        <v>10</v>
+      </c>
+      <c r="U87" t="n">
         <v>2028.569536423841</v>
       </c>
     </row>
@@ -5829,6 +6353,12 @@
         <v>2053</v>
       </c>
       <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>5</v>
+      </c>
+      <c r="U88" t="n">
         <v>2171.516556291391</v>
       </c>
     </row>
@@ -5890,6 +6420,12 @@
         <v>611</v>
       </c>
       <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>6</v>
+      </c>
+      <c r="U89" t="n">
         <v>1703.516556291391</v>
       </c>
     </row>
@@ -5951,6 +6487,12 @@
         <v>929</v>
       </c>
       <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>5</v>
+      </c>
+      <c r="U90" t="n">
         <v>1708.960264900662</v>
       </c>
     </row>
@@ -6012,6 +6554,12 @@
         <v>752</v>
       </c>
       <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>5</v>
+      </c>
+      <c r="U91" t="n">
         <v>1817.397350993378</v>
       </c>
     </row>
@@ -6073,6 +6621,12 @@
         <v>931</v>
       </c>
       <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
+      <c r="U92" t="n">
         <v>1865.569536423841</v>
       </c>
     </row>
@@ -6134,6 +6688,12 @@
         <v>1754</v>
       </c>
       <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1</v>
+      </c>
+      <c r="U93" t="n">
         <v>1497.271523178808</v>
       </c>
     </row>
@@ -6195,6 +6755,12 @@
         <v>9190</v>
       </c>
       <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>28</v>
+      </c>
+      <c r="U94" t="n">
         <v>1700.907284768212</v>
       </c>
     </row>
@@ -6256,6 +6822,12 @@
         <v>1105</v>
       </c>
       <c r="S95" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" t="n">
+        <v>5</v>
+      </c>
+      <c r="U95" t="n">
         <v>1318.596026490066</v>
       </c>
     </row>
@@ -6317,6 +6889,12 @@
         <v>453</v>
       </c>
       <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="n">
+        <v>10</v>
+      </c>
+      <c r="U96" t="n">
         <v>1337.774834437086</v>
       </c>
     </row>
@@ -6378,6 +6956,12 @@
         <v>1975</v>
       </c>
       <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>4</v>
+      </c>
+      <c r="U97" t="n">
         <v>1250.470198675497</v>
       </c>
     </row>
@@ -6439,6 +7023,12 @@
         <v>3041</v>
       </c>
       <c r="S98" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2</v>
+      </c>
+      <c r="U98" t="n">
         <v>1561.841059602649</v>
       </c>
     </row>
@@ -6500,6 +7090,12 @@
         <v>836</v>
       </c>
       <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="n">
+        <v>6</v>
+      </c>
+      <c r="U99" t="n">
         <v>2431.46357615894</v>
       </c>
     </row>
@@ -6561,6 +7157,12 @@
         <v>3836</v>
       </c>
       <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>8</v>
+      </c>
+      <c r="U100" t="n">
         <v>2004.046357615894</v>
       </c>
     </row>
@@ -6622,6 +7224,12 @@
         <v>3077</v>
       </c>
       <c r="S101" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>8</v>
+      </c>
+      <c r="U101" t="n">
         <v>2138.205298013245</v>
       </c>
     </row>
@@ -6681,6 +7289,12 @@
         <v>1420</v>
       </c>
       <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
         <v>2320.596026490066</v>
       </c>
     </row>
@@ -6742,6 +7356,12 @@
         <v>5928</v>
       </c>
       <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>7</v>
+      </c>
+      <c r="U103" t="n">
         <v>1403.834437086093</v>
       </c>
     </row>
@@ -6803,6 +7423,12 @@
         <v>2983</v>
       </c>
       <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" t="n">
         <v>1369.615894039735</v>
       </c>
     </row>
@@ -6864,6 +7490,12 @@
         <v>2832</v>
       </c>
       <c r="S105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3</v>
+      </c>
+      <c r="U105" t="n">
         <v>1379.046357615894</v>
       </c>
     </row>
@@ -6925,6 +7557,12 @@
         <v>1799</v>
       </c>
       <c r="S106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>9</v>
+      </c>
+      <c r="U106" t="n">
         <v>1347.675496688742</v>
       </c>
     </row>
@@ -6986,6 +7624,12 @@
         <v>1940</v>
       </c>
       <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2</v>
+      </c>
+      <c r="U107" t="n">
         <v>1364.165562913907</v>
       </c>
     </row>
@@ -7047,6 +7691,12 @@
         <v>3867</v>
       </c>
       <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>11</v>
+      </c>
+      <c r="U108" t="n">
         <v>1486.41059602649</v>
       </c>
     </row>
@@ -7108,6 +7758,12 @@
         <v>1197</v>
       </c>
       <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>4</v>
+      </c>
+      <c r="U109" t="n">
         <v>1207.225165562914</v>
       </c>
     </row>
@@ -7169,6 +7825,12 @@
         <v>2335</v>
       </c>
       <c r="S110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
         <v>1325.701986754967</v>
       </c>
     </row>
@@ -7230,6 +7892,12 @@
         <v>660</v>
       </c>
       <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>10</v>
+      </c>
+      <c r="U111" t="n">
         <v>1126.596026490066</v>
       </c>
     </row>
@@ -7291,6 +7959,12 @@
         <v>1419</v>
       </c>
       <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>15</v>
+      </c>
+      <c r="U112" t="n">
         <v>1157.443708609271</v>
       </c>
     </row>
@@ -7352,6 +8026,12 @@
         <v>762</v>
       </c>
       <c r="S113" t="n">
+        <v>2</v>
+      </c>
+      <c r="T113" t="n">
+        <v>7</v>
+      </c>
+      <c r="U113" t="n">
         <v>1138.847682119205</v>
       </c>
     </row>
@@ -7413,6 +8093,12 @@
         <v>844</v>
       </c>
       <c r="S114" t="n">
+        <v>0</v>
+      </c>
+      <c r="T114" t="n">
+        <v>3</v>
+      </c>
+      <c r="U114" t="n">
         <v>1132.437086092715</v>
       </c>
     </row>
@@ -7474,6 +8160,12 @@
         <v>3464</v>
       </c>
       <c r="S115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T115" t="n">
+        <v>10</v>
+      </c>
+      <c r="U115" t="n">
         <v>1237.185430463576</v>
       </c>
     </row>
@@ -7535,6 +8227,12 @@
         <v>2900</v>
       </c>
       <c r="S116" t="n">
+        <v>0</v>
+      </c>
+      <c r="T116" t="n">
+        <v>7</v>
+      </c>
+      <c r="U116" t="n">
         <v>1568.423841059603</v>
       </c>
     </row>
@@ -7596,6 +8294,12 @@
         <v>1446</v>
       </c>
       <c r="S117" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" t="n">
+        <v>3</v>
+      </c>
+      <c r="U117" t="n">
         <v>1665.64238410596</v>
       </c>
     </row>
@@ -7657,6 +8361,12 @@
         <v>1992</v>
       </c>
       <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1</v>
+      </c>
+      <c r="U118" t="n">
         <v>1891.966887417218</v>
       </c>
     </row>
@@ -7718,6 +8428,12 @@
         <v>1182</v>
       </c>
       <c r="S119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>3</v>
+      </c>
+      <c r="U119" t="n">
         <v>1834.139072847682</v>
       </c>
     </row>
@@ -7779,6 +8495,12 @@
         <v>3386</v>
       </c>
       <c r="S120" t="n">
+        <v>2</v>
+      </c>
+      <c r="T120" t="n">
+        <v>6</v>
+      </c>
+      <c r="U120" t="n">
         <v>2096.602649006622</v>
       </c>
     </row>
@@ -7840,6 +8562,12 @@
         <v>2172</v>
       </c>
       <c r="S121" t="n">
+        <v>0</v>
+      </c>
+      <c r="T121" t="n">
+        <v>3</v>
+      </c>
+      <c r="U121" t="n">
         <v>1951.781456953642</v>
       </c>
     </row>
@@ -7901,6 +8629,12 @@
         <v>326</v>
       </c>
       <c r="S122" t="n">
+        <v>0</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1</v>
+      </c>
+      <c r="U122" t="n">
         <v>1880.337748344371</v>
       </c>
     </row>
@@ -7962,6 +8696,12 @@
         <v>1532</v>
       </c>
       <c r="S123" t="n">
+        <v>0</v>
+      </c>
+      <c r="T123" t="n">
+        <v>4</v>
+      </c>
+      <c r="U123" t="n">
         <v>1948.350993377484</v>
       </c>
     </row>
@@ -8023,6 +8763,12 @@
         <v>4874</v>
       </c>
       <c r="S124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T124" t="n">
+        <v>16</v>
+      </c>
+      <c r="U124" t="n">
         <v>1797.622516556291</v>
       </c>
     </row>
@@ -8084,6 +8830,12 @@
         <v>4034</v>
       </c>
       <c r="S125" t="n">
+        <v>1</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1</v>
+      </c>
+      <c r="U125" t="n">
         <v>2249.192052980132</v>
       </c>
     </row>
@@ -8145,6 +8897,12 @@
         <v>4024</v>
       </c>
       <c r="S126" t="n">
+        <v>0</v>
+      </c>
+      <c r="T126" t="n">
+        <v>6</v>
+      </c>
+      <c r="U126" t="n">
         <v>1821.443708609271</v>
       </c>
     </row>
@@ -8206,6 +8964,12 @@
         <v>4506</v>
       </c>
       <c r="S127" t="n">
+        <v>0</v>
+      </c>
+      <c r="T127" t="n">
+        <v>5</v>
+      </c>
+      <c r="U127" t="n">
         <v>1937.125827814569</v>
       </c>
     </row>
@@ -8267,6 +9031,12 @@
         <v>2485</v>
       </c>
       <c r="S128" t="n">
+        <v>0</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2</v>
+      </c>
+      <c r="U128" t="n">
         <v>1212.384105960265</v>
       </c>
     </row>
@@ -8328,6 +9098,12 @@
         <v>438</v>
       </c>
       <c r="S129" t="n">
+        <v>1</v>
+      </c>
+      <c r="T129" t="n">
+        <v>7</v>
+      </c>
+      <c r="U129" t="n">
         <v>1170.907284768212</v>
       </c>
     </row>
@@ -8389,6 +9165,12 @@
         <v>1522</v>
       </c>
       <c r="S130" t="n">
+        <v>1</v>
+      </c>
+      <c r="T130" t="n">
+        <v>5</v>
+      </c>
+      <c r="U130" t="n">
         <v>1174.158940397351</v>
       </c>
     </row>
@@ -8450,6 +9232,12 @@
         <v>2058</v>
       </c>
       <c r="S131" t="n">
+        <v>0</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2</v>
+      </c>
+      <c r="U131" t="n">
         <v>1229.933774834437</v>
       </c>
     </row>
@@ -8511,6 +9299,12 @@
         <v>1354</v>
       </c>
       <c r="S132" t="n">
+        <v>0</v>
+      </c>
+      <c r="T132" t="n">
+        <v>3</v>
+      </c>
+      <c r="U132" t="n">
         <v>1429.05298013245</v>
       </c>
     </row>
@@ -8572,6 +9366,12 @@
         <v>2268</v>
       </c>
       <c r="S133" t="n">
+        <v>1</v>
+      </c>
+      <c r="T133" t="n">
+        <v>8</v>
+      </c>
+      <c r="U133" t="n">
         <v>1327.509933774835</v>
       </c>
     </row>
@@ -8633,6 +9433,12 @@
         <v>1328</v>
       </c>
       <c r="S134" t="n">
+        <v>0</v>
+      </c>
+      <c r="T134" t="n">
+        <v>4</v>
+      </c>
+      <c r="U134" t="n">
         <v>1193.483443708609</v>
       </c>
     </row>
@@ -8694,6 +9500,12 @@
         <v>5014</v>
       </c>
       <c r="S135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T135" t="n">
+        <v>6</v>
+      </c>
+      <c r="U135" t="n">
         <v>1693.549668874172</v>
       </c>
     </row>
@@ -8755,6 +9567,12 @@
         <v>2356</v>
       </c>
       <c r="S136" t="n">
+        <v>0</v>
+      </c>
+      <c r="T136" t="n">
+        <v>5</v>
+      </c>
+      <c r="U136" t="n">
         <v>1413.158940397351</v>
       </c>
     </row>
@@ -8816,6 +9634,12 @@
         <v>2425</v>
       </c>
       <c r="S137" t="n">
+        <v>0</v>
+      </c>
+      <c r="T137" t="n">
+        <v>5</v>
+      </c>
+      <c r="U137" t="n">
         <v>1503.735099337748</v>
       </c>
     </row>
@@ -8877,6 +9701,12 @@
         <v>3867</v>
       </c>
       <c r="S138" t="n">
+        <v>0</v>
+      </c>
+      <c r="T138" t="n">
+        <v>7</v>
+      </c>
+      <c r="U138" t="n">
         <v>1763.721854304636</v>
       </c>
     </row>
@@ -8938,6 +9768,12 @@
         <v>2909</v>
       </c>
       <c r="S139" t="n">
+        <v>0</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2</v>
+      </c>
+      <c r="U139" t="n">
         <v>1788.28476821192</v>
       </c>
     </row>
@@ -8999,6 +9835,12 @@
         <v>4699</v>
       </c>
       <c r="S140" t="n">
+        <v>0</v>
+      </c>
+      <c r="T140" t="n">
+        <v>6</v>
+      </c>
+      <c r="U140" t="n">
         <v>1993.006622516556</v>
       </c>
     </row>
@@ -9060,6 +9902,12 @@
         <v>3150</v>
       </c>
       <c r="S141" t="n">
+        <v>0</v>
+      </c>
+      <c r="T141" t="n">
+        <v>3</v>
+      </c>
+      <c r="U141" t="n">
         <v>2156.278145695364</v>
       </c>
     </row>
@@ -9121,6 +9969,12 @@
         <v>4627</v>
       </c>
       <c r="S142" t="n">
+        <v>0</v>
+      </c>
+      <c r="T142" t="n">
+        <v>4</v>
+      </c>
+      <c r="U142" t="n">
         <v>1945.026490066225</v>
       </c>
     </row>
@@ -9182,6 +10036,12 @@
         <v>2552</v>
       </c>
       <c r="S143" t="n">
+        <v>0</v>
+      </c>
+      <c r="T143" t="n">
+        <v>7</v>
+      </c>
+      <c r="U143" t="n">
         <v>1951.933774834437</v>
       </c>
     </row>
@@ -9243,6 +10103,12 @@
         <v>465</v>
       </c>
       <c r="S144" t="n">
+        <v>3</v>
+      </c>
+      <c r="T144" t="n">
+        <v>20</v>
+      </c>
+      <c r="U144" t="n">
         <v>1212.264900662252</v>
       </c>
     </row>
@@ -9304,6 +10170,12 @@
         <v>135</v>
       </c>
       <c r="S145" t="n">
+        <v>2</v>
+      </c>
+      <c r="T145" t="n">
+        <v>12</v>
+      </c>
+      <c r="U145" t="n">
         <v>1218.099337748344</v>
       </c>
     </row>
@@ -9365,6 +10237,12 @@
         <v>1014</v>
       </c>
       <c r="S146" t="n">
+        <v>0</v>
+      </c>
+      <c r="T146" t="n">
+        <v>6</v>
+      </c>
+      <c r="U146" t="n">
         <v>1205.529801324503</v>
       </c>
     </row>
@@ -9426,6 +10304,12 @@
         <v>1104</v>
       </c>
       <c r="S147" t="n">
+        <v>3</v>
+      </c>
+      <c r="T147" t="n">
+        <v>12</v>
+      </c>
+      <c r="U147" t="n">
         <v>1158.185430463576</v>
       </c>
     </row>
@@ -9487,6 +10371,12 @@
         <v>3286</v>
       </c>
       <c r="S148" t="n">
+        <v>1</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3</v>
+      </c>
+      <c r="U148" t="n">
         <v>1892.894039735099</v>
       </c>
     </row>
@@ -9548,6 +10438,12 @@
         <v>2750</v>
       </c>
       <c r="S149" t="n">
+        <v>0</v>
+      </c>
+      <c r="T149" t="n">
+        <v>7</v>
+      </c>
+      <c r="U149" t="n">
         <v>2277.450331125828</v>
       </c>
     </row>
@@ -9609,6 +10505,12 @@
         <v>2461</v>
       </c>
       <c r="S150" t="n">
+        <v>0</v>
+      </c>
+      <c r="T150" t="n">
+        <v>4</v>
+      </c>
+      <c r="U150" t="n">
         <v>1894.198675496689</v>
       </c>
     </row>
@@ -9670,6 +10572,12 @@
         <v>3266</v>
       </c>
       <c r="S151" t="n">
+        <v>1</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3</v>
+      </c>
+      <c r="U151" t="n">
         <v>2196.920529801324</v>
       </c>
     </row>
@@ -9731,6 +10639,12 @@
         <v>2903</v>
       </c>
       <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1</v>
+      </c>
+      <c r="U152" t="n">
         <v>2362.735099337748</v>
       </c>
     </row>
